--- a/ALTERAÇÃO DE ÁREA.xlsx
+++ b/ALTERAÇÃO DE ÁREA.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\inventory_change_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF86D9-E6C0-4D8E-901D-2CB254A3FB6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2315E797-2662-4B4C-8376-82B82B86E96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>DESLIGUE</t>
-  </si>
-  <si>
-    <t>RETIRADA</t>
-  </si>
-  <si>
-    <t>DESLIGUE E RETIRADA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Código Imóvel</t>
   </si>
@@ -71,15 +63,78 @@
   <si>
     <t>Área Comum</t>
   </si>
+  <si>
+    <t>GCN</t>
+  </si>
+  <si>
+    <t>Prioridade 1</t>
+  </si>
+  <si>
+    <t>Prioridade 2</t>
+  </si>
+  <si>
+    <t>Prioridade 3</t>
+  </si>
+  <si>
+    <t>Prioridade 4</t>
+  </si>
+  <si>
+    <t>Prioridade 5</t>
+  </si>
+  <si>
+    <t>Oi</t>
+  </si>
+  <si>
+    <t>V.tal</t>
+  </si>
+  <si>
+    <t>Campo</t>
+  </si>
+  <si>
+    <t>Extrapolação</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,13 +160,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -122,6 +229,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C4277DE7-BC2E-4EFC-AB5B-781DF7180073}" name="Tabela1" displayName="Tabela1" ref="A1:H100" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:H100" xr:uid="{C4277DE7-BC2E-4EFC-AB5B-781DF7180073}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{550C23F9-26CA-45F9-9EEA-161168735895}" name="Código Imóvel" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A5383266-06D8-4B0C-80E4-1559F6F66832}" name="Criticidade" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{196BBFD7-DB62-47A8-B548-115E0B0A5106}" name="Proprietário" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{388E7EEE-164C-44BE-B641-23F6C1DA9979}" name="Método de coleta PRR" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{786E39E3-F58E-4571-AE85-0C5DE70E622D}" name="Área Adm Oi" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{F50F1DAB-7E52-422B-8F87-ABE132008D9D}" name="Área Adm V.tal" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F0DA6E5B-28E6-4962-947C-6F8641DCECAD}" name="Área Tecnica" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{4A9213F6-971A-4FA5-AF15-F295BE53C73D}" name="Área Comum" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,46 +545,2676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E4B02E-3364-48A4-8353-D8704FBEF3C7}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="72.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="J2" s="2" t="str">
+        <f>IF(K2&gt;0,"CAMPO CÓDIGO DO IMÓVEL NÃO PODE CONTER ESPAÇOS",IF(L2=FALSE,"PROPRIETÁRIO DEVE SER Oi ou V.tal",IF(M2=FALSE,"MÉTODO DE COLETA DEVE SER Campo ou Extrapolação",IF(N2=TRUE,"CRITICADADE INVÁLIDA",IF(O2=FALSE,"FAVOR PREENCHER CAMPOS DE ÁREA SOMENTE COM VALORES NÚMERICOS","")))))</f>
+        <v/>
+      </c>
+      <c r="K2" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J3" s="2" t="str">
+        <f t="shared" ref="J3:J66" si="0">IF(K3 &gt; 0, "CAMPO CÓDIGO DO IMÓVEL NÃO PODE CONTER ESPAÇOS", "")</f>
+        <v/>
+      </c>
+      <c r="K3" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N10" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N12" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N15" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M28" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N28" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M30" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M32" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M33" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M34" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M36" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K37" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M37" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K38" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N38" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K39" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M39" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N39" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K40" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M40" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N40" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K41" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M41" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K42" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M42" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K43" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K44" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M44" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K45" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M45" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K46" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M46" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K47" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M47" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N47" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K48" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M48" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N48" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K49" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M49" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N49" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K50" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M50" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N50" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K51" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M51" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N51" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K52" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K53" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K54" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K55" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M55" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N55" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K56" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M56" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K57" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M57" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K58" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M58" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N58" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K59" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M59" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K60" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M60" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N60" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K61" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M61" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N61" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K62" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M62" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N62" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K63" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M63" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N63" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K64" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M64" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N64" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K65" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M65" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N65" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K66" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M66" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N66" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J67" s="2" t="str">
+        <f t="shared" ref="J67:J100" si="1">IF(K67 &gt; 0, "CAMPO CÓDIGO DO IMÓVEL NÃO PODE CONTER ESPAÇOS", "")</f>
+        <v/>
+      </c>
+      <c r="K67" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M67" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N67" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K68" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M68" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N68" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K69" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M69" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K70" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M70" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K71" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M71" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N71" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K72" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M72" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N72" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K73" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M73" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N73" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K74" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M74" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N74" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K75" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M75" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N75" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K76" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M76" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N76" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K77" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M77" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N77" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K78" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M78" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N78" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K79" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M79" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N79" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K80" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M80" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N80" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K81" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M81" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N81" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K82" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M82" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N82" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K83" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M83" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N83" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O83" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K84" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M84" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N84" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O84" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K85" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M85" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N85" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O85" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K86" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M86" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N86" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O86" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K87" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M87" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N87" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O87" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K88" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M88" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N88" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O88" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K89" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M89" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N89" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O89" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K90" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M90" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N90" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O90" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K91" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M91" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N91" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K92" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M92" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N92" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O92" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K93" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M93" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N93" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K94" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M94" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N94" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K95" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M95" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N95" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O95" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K96" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M96" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N96" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K97" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M97" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N97" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K98" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M98" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N98" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K99" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M99" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N99" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="K100" s="1">
+        <f>IFERROR(FIND(" ",Tabela1[[#This Row],[Código Imóvel]]),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Proprietário]] = "", Tabela1[[#This Row],[Proprietário]] = "Oi", Tabela1[[#This Row],[Proprietário]] = "V.tal")</f>
+        <v>1</v>
+      </c>
+      <c r="M100" s="1" t="b">
+        <f>OR(Tabela1[[#This Row],[Método de coleta PRR]] = "", Tabela1[[#This Row],[Método de coleta PRR]] = "Campo", Tabela1[[#This Row],[Método de coleta PRR]] = "Extrapolação")</f>
+        <v>1</v>
+      </c>
+      <c r="N100" s="1" t="b">
+        <f>AND(ISERROR(VLOOKUP(Tabela1[[#This Row],[Criticidade]],Planilha2!A:A,1,0)),Tabela1[[#This Row],[Criticidade]] &lt;&gt; "")</f>
+        <v>0</v>
+      </c>
+      <c r="O100" s="1" t="b">
+        <f>AND(OR(ISNUMBER(Tabela1[[#This Row],[Área Adm Oi]]),Tabela1[[#This Row],[Área Adm Oi]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Adm V.tal]]),Tabela1[[#This Row],[Área Adm V.tal]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Tecnica]]),Tabela1[[#This Row],[Área Tecnica]]=""),OR(ISNUMBER(Tabela1[[#This Row],[Área Comum]]),Tabela1[[#This Row],[Área Comum]]=""))</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A623F6D5-B332-4D97-A674-9822C05E9A3F}">
+          <x14:formula1>
+            <xm:f>Planilha2!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A9B9AD94-0857-4F5C-8A36-502646C69639}">
+          <x14:formula1>
+            <xm:f>Planilha2!$C$1:$C$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C100</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDF45761-C9EB-4B68-B958-F07058BD7795}">
+          <x14:formula1>
+            <xm:f>Planilha2!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D100</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A94AEF-F26F-427A-8BEF-D7365B728363}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1503.36</v>
       </c>
     </row>
   </sheetData>
@@ -468,35 +3222,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EA8077-3F9E-4CBF-B9DC-BBA4397B3BEB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>